--- a/export_lista_fiis_investimentos['Híbrido'].xlsx
+++ b/export_lista_fiis_investimentos['Híbrido'].xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,21 +622,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GALG11</t>
+          <t>CACR11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>97,07</t>
+          <t>107,06</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fundo de Investimento Imobiliário Guardian Logística</t>
+          <t>AF INVEST FUNDO DE INVESTIMENTO IMOBILIÁRIO - RECEBÍVEIS IMOBILIÁRIOS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -650,53 +650,53 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>11.2</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10.08</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5.613.031</t>
+          <t>1.514.227</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>829558</v>
+        <v>347849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HGRU11</t>
+          <t>DVFF11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>114,00</t>
+          <t>84,01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CSHG RENDA URBANA - FUNDO DE INVESTIMENTO IMOBILIARIO - FII</t>
+          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO - DEVANT FUNDO DE FUNDOS IMOBILIÁRIOS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -710,53 +710,53 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>18.406.458</t>
+          <t>1.100.950</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4146630</v>
+        <v>321798</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KNRI11</t>
+          <t>FIIB11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>134,70</t>
+          <t>457,80</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>KINEA RENDA IMOBILIÁRIA FUNDO DE INVESTIMENTO IMOBILIÁRIO - FII</t>
+          <t>FUNDO DE INVESTIMENTO IMOBILIARIO INDUSTRIAL DO BRASIL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -770,53 +770,53 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>39.68</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>24.157.121</t>
+          <t>685.000</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4252700</v>
+        <v>331241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RZTR11</t>
+          <t>GALG11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>102,02</t>
+          <t>97,07</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO RIZA TERRAX</t>
+          <t>Fundo de Investimento Imobiliário Guardian Logística</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -830,53 +830,53 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>10.08</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11.048.018</t>
+          <t>5.613.031</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3577440</v>
+        <v>829558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SARE11</t>
+          <t>HBRH11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>68,87</t>
+          <t>85,00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SANTANDER RENDA DE ALUGUÉIS FUNDO DE INVESTIMENTO IMOBILIÁRIO- FII</t>
+          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO MULTI RENDA URBANA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -890,94 +890,754 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>10.8</v>
+        <v>10.2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>11.4</v>
+        <v>8.1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>9.234.329</t>
+          <t>2.772.204</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>979951</v>
+        <v>414603</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HGRU11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>114,00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CSHG RENDA URBANA - FUNDO DE INVESTIMENTO IMOBILIARIO - FII</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>81</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>18.406.458</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>4146630</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HSRE11</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>98,37</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>HSI RENDA IMOBILIÁRIA FUNDO DE INVESTIMENTO IMOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10/02/2022</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>27</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>8.518.064</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>270713</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>KNRI11</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>134,70</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KINEA RENDA IMOBILIÁRIA FUNDO DE INVESTIMENTO IMOBILIÁRIO - FII</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>19</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>24.157.121</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>4252700</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MFII11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>107,00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MERITO DESENVOLVIMENTO IMOBILIARIO I FII - FUNDO DE INVESTIMENTO IMOBILIARIO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>4.146.900</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>446366</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NEWL11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>101,90</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NEWPORT LOGÍSTICA FUNDO DE INVESTIMENTO IMOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2.033.099</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>404483</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>OUJP11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>88,99</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>OURINVEST JPP FUNDO DE INVESTIMENTO IMOBILIÁRIO- FII</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3.252.384</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>483106</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PLCR11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>87,85</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PLURAL RECEBÍVEIS IMOBILIÁRIOS FUNDO DE INVESTIMENTO IMOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2.109.169</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>415276</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RZTR11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>102,02</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO RIZA TERRAX</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>11.048.018</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>3577440</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SARE11</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>68,87</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SANTANDER RENDA DE ALUGUÉIS FUNDO DE INVESTIMENTO IMOBILIÁRIO- FII</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>9.234.329</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>979951</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>TRXF11</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>101,24</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>TRX REAL ESTATE FUNDO DE INVESTIMENTO IMOBILIÁRIO - FII</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>11/02/2022</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Híbrido</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>7.20</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="I18" t="n">
         <v>8.1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="L18" t="n">
         <v>25</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>7.244.808</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="N18" t="n">
         <v>1767620</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VGHF11</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10,11</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VALORA HEDGE FUND FUNDO DE INVESTIMENTO IMOBILIÁRIO - FII</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>33.361.255</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>2063810</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>VVPR11</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>93,50</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fundo de Investimento Imobiliário - V2 Properties</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>9</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>11</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.305.771</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>293251</v>
       </c>
     </row>
   </sheetData>
